--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="285" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B001F9C6-12B2-3342-831D-21481E6E8D97}"/>
+  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FDA41D-086C-AD41-A483-D2F609919574}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1880" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -348,7 +348,7 @@
     <t>Participated in sessions, answered questions and supported students in developing their own psychological tests</t>
   </si>
   <si>
-    <t>Wrote two tutorial scripts in RMarkdown for item analysis and exploratory factor analysis, published on pandar as a cheatsheet for students.</t>
+    <t>Wrote two tutorial scripts in RMarkdown for item analysis and exploratory factor analysis, published on [pandaR](https://pandar.netlify.app/extras/#diagnostik) (open R resource platform) as a cheatsheet for students.</t>
   </si>
 </sst>
 </file>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>66</v>
       </c>

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="288" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7FDA41D-086C-AD41-A483-D2F609919574}"/>
+  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04F4FDB-15EA-E744-B900-B7211B3EE379}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -243,12 +243,6 @@
     <t>Frankfurt am Main</t>
   </si>
   <si>
-    <t>Work unit for differential psychology and psychological diagnostics</t>
-  </si>
-  <si>
-    <t>Work unit for educational psychology with a focus on counseling, diagnosis, and evaluation.</t>
-  </si>
-  <si>
     <t>TRUE</t>
   </si>
   <si>
@@ -349,6 +343,12 @@
   </si>
   <si>
     <t>Wrote two tutorial scripts in RMarkdown for item analysis and exploratory factor analysis, published on [pandaR](https://pandar.netlify.app/extras/#diagnostik) (open R resource platform) as a cheatsheet for students.</t>
+  </si>
+  <si>
+    <t>Work unit for differential psychology and &lt;br&gt; psychological diagnostics</t>
+  </si>
+  <si>
+    <t>Work unit for educational psychology with a  &lt;br&gt;focus on counseling, diagnosis, and evaluation.</t>
   </si>
 </sst>
 </file>
@@ -1266,16 +1266,16 @@
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1316,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1370,7 +1370,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1382,19 +1382,19 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
@@ -1402,7 +1402,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1414,16 +1414,16 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
@@ -1431,10 +1431,10 @@
         <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>56</v>
@@ -1449,10 +1449,10 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1839,114 +1839,114 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D04F4FDB-15EA-E744-B900-B7211B3EE379}"/>
+  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D92DE8D-94A4-5D4E-A438-504A426B5DD3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
   <si>
     <t>in_resume</t>
   </si>
@@ -252,9 +252,6 @@
     <t>Kindertagesstätte Papillon</t>
   </si>
   <si>
-    <t>expected: 09/2023</t>
-  </si>
-  <si>
     <t>10/2020</t>
   </si>
   <si>
@@ -349,6 +346,12 @@
   </si>
   <si>
     <t>Work unit for educational psychology with a  &lt;br&gt;focus on counseling, diagnosis, and evaluation.</t>
+  </si>
+  <si>
+    <t>Bash/Shell</t>
+  </si>
+  <si>
+    <t>expected: 04/2024</t>
   </si>
 </sst>
 </file>
@@ -1211,8 +1214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="C8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1266,16 +1269,16 @@
         <v>61</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>108</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1316,7 +1319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1370,7 +1373,7 @@
         <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1382,16 +1385,16 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="K2" t="s">
         <v>72</v>
@@ -1402,7 +1405,7 @@
         <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
         <v>70</v>
@@ -1414,13 +1417,13 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="K3" t="s">
         <v>72</v>
@@ -1449,7 +1452,7 @@
         <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>72</v>
@@ -1824,10 +1827,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B34646-B804-4B4A-B6E0-EE2F41B9C9B5}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,114 +1842,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
         <v>77</v>
-      </c>
-      <c r="C1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="297" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D92DE8D-94A4-5D4E-A438-504A426B5DD3}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA1CC91-A57C-9B44-85FD-8F698CA7D28C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>in_resume</t>
   </si>
@@ -60,12 +60,6 @@
     <t>org</t>
   </si>
   <si>
-    <t>2014-08</t>
-  </si>
-  <si>
-    <t>2016-01</t>
-  </si>
-  <si>
     <t>award</t>
   </si>
   <si>
@@ -228,12 +222,6 @@
     <t>Undergraduate Research Assistant</t>
   </si>
   <si>
-    <t>2020-09</t>
-  </si>
-  <si>
-    <t>2019-09</t>
-  </si>
-  <si>
     <t>Took an active role in the daily care and supervision of children aged 1 to 3 years old as part of a small team</t>
   </si>
   <si>
@@ -352,6 +340,21 @@
   </si>
   <si>
     <t>expected: 04/2024</t>
+  </si>
+  <si>
+    <t>2021/08</t>
+  </si>
+  <si>
+    <t>2019/09</t>
+  </si>
+  <si>
+    <t>2020/09</t>
+  </si>
+  <si>
+    <t>2020/10</t>
+  </si>
+  <si>
+    <t>2023/03</t>
   </si>
 </sst>
 </file>
@@ -909,10 +912,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1214,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="C8:D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1252,7 +1251,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s">
         <v>0</v>
@@ -1260,25 +1259,25 @@
     </row>
     <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1286,25 +1285,25 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -1319,8 +1318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1362,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1370,92 +1369,95 @@
     </row>
     <row r="2" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="B2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" t="s">
         <v>66</v>
       </c>
-      <c r="B3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>105</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1499,16 +1501,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -1517,41 +1519,41 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>2021</v>
@@ -1565,16 +1567,16 @@
     </row>
     <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4">
         <v>2016</v>
@@ -1583,21 +1585,21 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1642,27 +1644,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1673,10 +1675,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3">
         <v>2020</v>
@@ -1687,10 +1689,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>2017</v>
@@ -1701,10 +1703,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5">
         <v>2016</v>
@@ -1715,7 +1717,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1732,10 +1734,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>2014</v>
@@ -1746,10 +1748,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>2014</v>
@@ -1760,10 +1762,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2010</v>
@@ -1777,7 +1779,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1794,10 +1796,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>2010</v>
@@ -1808,7 +1810,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>9</v>
@@ -1842,128 +1844,128 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B2">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -1986,27 +1988,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CA1CC91-A57C-9B44-85FD-8F698CA7D28C}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE1C067-127E-B049-AAFF-797393072CAB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
   <si>
     <t>in_resume</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>2023/03</t>
+  </si>
+  <si>
+    <t>Work unit for psychological methods with interdisciplinary focus</t>
+  </si>
+  <si>
+    <t>2023/04</t>
   </si>
 </sst>
 </file>
@@ -1319,7 +1325,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1458,6 +1464,23 @@
       </c>
       <c r="K4" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="308" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE1C067-127E-B049-AAFF-797393072CAB}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74646721-30FA-8F4C-B3F9-B343E7ADB3BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
   <si>
     <t>in_resume</t>
   </si>
@@ -351,16 +351,19 @@
     <t>2020/09</t>
   </si>
   <si>
-    <t>2020/10</t>
-  </si>
-  <si>
     <t>2023/03</t>
   </si>
   <si>
-    <t>Work unit for psychological methods with interdisciplinary focus</t>
-  </si>
-  <si>
     <t>2023/04</t>
+  </si>
+  <si>
+    <t>2022/10</t>
+  </si>
+  <si>
+    <t>Work unit for psychological methods with&lt;br&gt;interdisciplinary focus</t>
+  </si>
+  <si>
+    <t>Coming work on new tigeR project as part of the DigiTell-Partnership Project of SS23</t>
   </si>
 </sst>
 </file>
@@ -918,6 +921,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1325,7 +1332,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1387,7 +1394,7 @@
         <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>97</v>
@@ -1422,7 +1429,7 @@
         <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>96</v>
@@ -1466,12 +1473,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -1480,7 +1487,10 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>109</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">

--- a/data/cv-data.xlsx
+++ b/data/cv-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8987251e2c38395f/Dokumente/Studium/cv/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{74646721-30FA-8F4C-B3F9-B343E7ADB3BB}"/>
+  <xr:revisionPtr revIDLastSave="329" documentId="13_ncr:1_{8F600B6B-90F5-DC4B-B6D1-EA0FE5EE6490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5EAC1328-E33F-0645-9EBF-B2A7E7C4F41C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="education" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
   <si>
     <t>in_resume</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Data Analysis, -Workflow, -Management, -Visualization</t>
   </si>
   <si>
-    <t>Current average grade: 1.4 (GPA: 3.7)</t>
-  </si>
-  <si>
     <t>Participated in the planning and organization of activities in the nursery group, communication with the parents of the children, and contributed to team meetings and the overall operation of the daycare center.</t>
   </si>
   <si>
@@ -339,9 +336,6 @@
     <t>Bash/Shell</t>
   </si>
   <si>
-    <t>expected: 04/2024</t>
-  </si>
-  <si>
     <t>2021/08</t>
   </si>
   <si>
@@ -363,7 +357,19 @@
     <t>Work unit for psychological methods with&lt;br&gt;interdisciplinary focus</t>
   </si>
   <si>
-    <t>Coming work on new tigeR project as part of the DigiTell-Partnership Project of SS23</t>
+    <t>Current average grade: 1.3 (GPA: 3.7)</t>
+  </si>
+  <si>
+    <t>expected: 07/2024</t>
+  </si>
+  <si>
+    <t>Active development of the software infrastructure in the R Shiny framework</t>
+  </si>
+  <si>
+    <t>Collaboration in the DigiTeLL-Partnership Project tigeR, aimed at developing a self-learning tool for the statistics course in psychology using R Shiny</t>
+  </si>
+  <si>
+    <t>Public outreach within the project to present the ideas and progress to other DigiTeLL partnerships</t>
   </si>
 </sst>
 </file>
@@ -1227,7 +1233,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1284,13 +1290,13 @@
         <v>71</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -1332,7 +1338,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1391,7 @@
         <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
         <v>66</v>
@@ -1394,19 +1400,19 @@
         <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="K2" t="s">
         <v>68</v>
@@ -1417,7 +1423,7 @@
         <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
         <v>66</v>
@@ -1426,19 +1432,19 @@
         <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="K3" t="s">
         <v>68</v>
@@ -1458,27 +1464,27 @@
         <v>54</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>65</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
         <v>66</v>
@@ -1487,10 +1493,19 @@
         <v>67</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>112</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -1666,7 +1681,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1865,7 +1880,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1989,7 +2004,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9">
         <v>1</v>
